--- a/uploads/wednesday schedule.xlsx
+++ b/uploads/wednesday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA70198-3A49-4F35-AEA6-9B6086C201F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542E66E-50E1-45CC-A898-8F2975B497E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{70315176-BFCF-453F-A364-E1791D6E9811}"/>
   </bookViews>
@@ -1279,15 +1279,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CD97E8-CB1E-4CEC-9E54-D07E75C7448E}">
   <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56" style="3" customWidth="1"/>
+    <col min="5" max="5" width="59.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1307,7 +1308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1406,16 +1407,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11" s="3" t="s">
         <v>250</v>
       </c>
@@ -1423,16 +1421,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12" s="3" t="s">
         <v>250</v>
       </c>
@@ -1440,16 +1435,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
       <c r="D13" s="3" t="s">
         <v>250</v>
       </c>
@@ -1457,16 +1449,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>191</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
       <c r="D14" s="3" t="s">
         <v>250</v>
       </c>
@@ -1474,16 +1463,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>250</v>
       </c>
@@ -1491,16 +1477,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>250</v>
       </c>
@@ -1508,16 +1491,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>149</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
       <c r="D17" s="3" t="s">
         <v>250</v>
       </c>
@@ -1525,16 +1505,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
       </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>250</v>
       </c>
@@ -1542,16 +1519,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>151</v>
       </c>
       <c r="B19" t="s">
         <v>191</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
       <c r="D19" s="3" t="s">
         <v>250</v>
       </c>
@@ -1559,16 +1533,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>191</v>
       </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
       <c r="D20" s="3" t="s">
         <v>250</v>
       </c>
@@ -1576,16 +1547,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>153</v>
       </c>
       <c r="B21" t="s">
         <v>191</v>
       </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
       <c r="D21" s="3" t="s">
         <v>250</v>
       </c>
@@ -1593,16 +1561,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>191</v>
       </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
       <c r="D22" s="3" t="s">
         <v>250</v>
       </c>
@@ -1610,16 +1575,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>191</v>
       </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
       <c r="D23" s="3" t="s">
         <v>250</v>
       </c>
@@ -1627,16 +1589,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>191</v>
       </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
       <c r="D24" s="3" t="s">
         <v>250</v>
       </c>
@@ -1644,16 +1603,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>191</v>
       </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
       <c r="D25" s="3" t="s">
         <v>250</v>
       </c>
@@ -1661,16 +1617,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>191</v>
       </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
       <c r="D26" s="3" t="s">
         <v>250</v>
       </c>
@@ -1678,16 +1631,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>154</v>
       </c>
       <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
       <c r="D27" s="3" t="s">
         <v>250</v>
       </c>
@@ -1695,16 +1645,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>191</v>
       </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
       <c r="D28" s="3" t="s">
         <v>250</v>
       </c>
@@ -1712,16 +1659,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>155</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
       <c r="D29" s="3" t="s">
         <v>250</v>
       </c>
@@ -1729,16 +1673,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>156</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
       <c r="D30" s="3" t="s">
         <v>250</v>
       </c>
@@ -1746,16 +1687,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>157</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31">
-        <v>17</v>
-      </c>
       <c r="D31" s="3" t="s">
         <v>250</v>
       </c>
@@ -1763,16 +1701,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>158</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
       <c r="D32" s="3" t="s">
         <v>250</v>
       </c>
@@ -1780,16 +1715,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33">
-        <v>19</v>
-      </c>
       <c r="D33" s="3" t="s">
         <v>250</v>
       </c>
@@ -1797,16 +1729,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>159</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>250</v>
       </c>
@@ -1814,16 +1743,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
-        <v>21</v>
-      </c>
       <c r="D35" s="3" t="s">
         <v>250</v>
       </c>
@@ -1831,16 +1757,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36">
-        <v>22</v>
-      </c>
       <c r="D36" s="3" t="s">
         <v>250</v>
       </c>
@@ -1848,16 +1771,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37">
-        <v>23</v>
-      </c>
       <c r="D37" s="3" t="s">
         <v>250</v>
       </c>
@@ -1865,16 +1785,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38">
-        <v>24</v>
-      </c>
       <c r="D38" s="3" t="s">
         <v>250</v>
       </c>
@@ -1882,16 +1799,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
-        <v>25</v>
-      </c>
       <c r="D39" s="3" t="s">
         <v>250</v>
       </c>
@@ -1899,16 +1813,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40">
-        <v>26</v>
-      </c>
       <c r="D40" s="3" t="s">
         <v>250</v>
       </c>
@@ -1916,16 +1827,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41">
-        <v>27</v>
-      </c>
       <c r="D41" s="3" t="s">
         <v>250</v>
       </c>
@@ -1933,16 +1841,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="C42">
-        <v>28</v>
-      </c>
       <c r="D42" s="3" t="s">
         <v>250</v>
       </c>
@@ -1950,16 +1855,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43">
-        <v>29</v>
-      </c>
       <c r="D43" s="3" t="s">
         <v>250</v>
       </c>
@@ -1967,16 +1869,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44">
-        <v>30</v>
-      </c>
       <c r="D44" s="3" t="s">
         <v>250</v>
       </c>
@@ -1984,16 +1883,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C45">
-        <v>31</v>
-      </c>
       <c r="D45" s="3" t="s">
         <v>250</v>
       </c>
@@ -2001,16 +1897,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
-        <v>32</v>
-      </c>
       <c r="D46" s="3" t="s">
         <v>250</v>
       </c>
@@ -2018,16 +1911,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>160</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47">
-        <v>33</v>
-      </c>
       <c r="D47" s="3" t="s">
         <v>250</v>
       </c>
@@ -2035,16 +1925,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
       </c>
-      <c r="C48">
-        <v>34</v>
-      </c>
       <c r="D48" s="3" t="s">
         <v>250</v>
       </c>
@@ -2052,16 +1939,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>161</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="C49">
-        <v>35</v>
-      </c>
       <c r="D49" s="3" t="s">
         <v>250</v>
       </c>
@@ -2069,16 +1953,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>162</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
-      <c r="C50">
-        <v>35</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>250</v>
       </c>
@@ -2086,16 +1967,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
-      <c r="C51">
-        <v>36</v>
-      </c>
       <c r="D51" s="3" t="s">
         <v>250</v>
       </c>
@@ -2103,16 +1981,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
-      <c r="C52">
-        <v>36</v>
-      </c>
       <c r="D52" s="3" t="s">
         <v>250</v>
       </c>
@@ -2120,16 +1995,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="C53">
-        <v>37</v>
-      </c>
       <c r="D53" s="3" t="s">
         <v>250</v>
       </c>
@@ -2137,16 +2009,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="C54">
-        <v>38</v>
-      </c>
       <c r="D54" s="3" t="s">
         <v>250</v>
       </c>
@@ -2154,16 +2023,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>42</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
-      <c r="C55">
-        <v>39</v>
-      </c>
       <c r="D55" s="3" t="s">
         <v>250</v>
       </c>
@@ -2171,16 +2037,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
-      <c r="C56">
-        <v>40</v>
-      </c>
       <c r="D56" s="3" t="s">
         <v>250</v>
       </c>
@@ -2188,16 +2051,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
-      <c r="C57">
-        <v>41</v>
-      </c>
       <c r="D57" s="3" t="s">
         <v>250</v>
       </c>
@@ -2205,16 +2065,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>165</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
       </c>
-      <c r="C58">
-        <v>42</v>
-      </c>
       <c r="D58" s="3" t="s">
         <v>250</v>
       </c>
@@ -2222,16 +2079,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>45</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C59">
-        <v>43</v>
-      </c>
       <c r="D59" s="3" t="s">
         <v>250</v>
       </c>
@@ -2239,16 +2093,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C60">
-        <v>44</v>
-      </c>
       <c r="D60" s="3" t="s">
         <v>250</v>
       </c>
@@ -2256,16 +2107,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>166</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
       </c>
-      <c r="C61">
-        <v>45</v>
-      </c>
       <c r="D61" s="3" t="s">
         <v>250</v>
       </c>
@@ -2273,16 +2121,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
       </c>
-      <c r="C62">
-        <v>46</v>
-      </c>
       <c r="D62" s="3" t="s">
         <v>250</v>
       </c>
@@ -2290,16 +2135,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>167</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
       </c>
-      <c r="C63">
-        <v>47</v>
-      </c>
       <c r="D63" s="3" t="s">
         <v>250</v>
       </c>
@@ -2307,16 +2149,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>168</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
-      <c r="C64">
-        <v>48</v>
-      </c>
       <c r="D64" s="3" t="s">
         <v>250</v>
       </c>
@@ -2324,16 +2163,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>48</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
       </c>
-      <c r="C65">
-        <v>48</v>
-      </c>
       <c r="D65" s="3" t="s">
         <v>250</v>
       </c>
@@ -2341,16 +2177,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>49</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66">
-        <v>49</v>
-      </c>
       <c r="D66" s="3" t="s">
         <v>250</v>
       </c>
@@ -2358,16 +2191,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
       </c>
-      <c r="C67">
-        <v>50</v>
-      </c>
       <c r="D67" s="3" t="s">
         <v>250</v>
       </c>
@@ -2375,16 +2205,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
       </c>
-      <c r="C68">
-        <v>51</v>
-      </c>
       <c r="D68" s="3" t="s">
         <v>250</v>
       </c>
@@ -2392,16 +2219,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
       </c>
-      <c r="C69">
-        <v>52</v>
-      </c>
       <c r="D69" s="3" t="s">
         <v>250</v>
       </c>
@@ -2409,16 +2233,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>53</v>
       </c>
       <c r="B70" t="s">
         <v>192</v>
       </c>
-      <c r="C70">
-        <v>54</v>
-      </c>
       <c r="D70" s="3" t="s">
         <v>250</v>
       </c>
@@ -2426,16 +2247,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>55</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
       </c>
-      <c r="C71">
-        <v>55</v>
-      </c>
       <c r="D71" s="3" t="s">
         <v>250</v>
       </c>
@@ -2443,16 +2261,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>57</v>
       </c>
       <c r="B72" t="s">
         <v>54</v>
       </c>
-      <c r="C72">
-        <v>56</v>
-      </c>
       <c r="D72" s="3" t="s">
         <v>250</v>
       </c>
@@ -2460,16 +2275,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>58</v>
       </c>
       <c r="B73" t="s">
         <v>54</v>
       </c>
-      <c r="C73">
-        <v>57</v>
-      </c>
       <c r="D73" s="3" t="s">
         <v>250</v>
       </c>
@@ -2477,16 +2289,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>56</v>
       </c>
-      <c r="C74">
-        <v>58</v>
-      </c>
       <c r="D74" s="3" t="s">
         <v>250</v>
       </c>
@@ -2494,16 +2303,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>60</v>
       </c>
       <c r="B75" t="s">
         <v>56</v>
       </c>
-      <c r="C75">
-        <v>59</v>
-      </c>
       <c r="D75" s="3" t="s">
         <v>250</v>
       </c>
@@ -2511,16 +2317,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>61</v>
       </c>
       <c r="B76" t="s">
         <v>56</v>
       </c>
-      <c r="C76">
-        <v>60</v>
-      </c>
       <c r="D76" s="3" t="s">
         <v>250</v>
       </c>
@@ -2528,16 +2331,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>62</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
-      <c r="C77">
-        <v>61</v>
-      </c>
       <c r="D77" s="3" t="s">
         <v>250</v>
       </c>
@@ -2545,16 +2345,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>63</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
       </c>
-      <c r="C78">
-        <v>62</v>
-      </c>
       <c r="D78" s="3" t="s">
         <v>250</v>
       </c>
@@ -2562,16 +2359,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>64</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
-      <c r="C79">
-        <v>63</v>
-      </c>
       <c r="D79" s="3" t="s">
         <v>250</v>
       </c>
@@ -2579,16 +2373,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>54</v>
       </c>
-      <c r="C80">
-        <v>64</v>
-      </c>
       <c r="D80" s="3" t="s">
         <v>250</v>
       </c>
@@ -2596,16 +2387,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>66</v>
       </c>
       <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="C81">
-        <v>65</v>
-      </c>
       <c r="D81" s="3" t="s">
         <v>250</v>
       </c>
@@ -2613,16 +2401,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>67</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
       </c>
-      <c r="C82">
-        <v>66</v>
-      </c>
       <c r="D82" s="3" t="s">
         <v>250</v>
       </c>
@@ -2630,16 +2415,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>68</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="C83">
-        <v>67</v>
-      </c>
       <c r="D83" s="3" t="s">
         <v>250</v>
       </c>
@@ -2647,16 +2429,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>69</v>
       </c>
       <c r="B84" t="s">
         <v>54</v>
       </c>
-      <c r="C84">
-        <v>68</v>
-      </c>
       <c r="D84" s="3" t="s">
         <v>250</v>
       </c>
@@ -2664,16 +2443,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>70</v>
       </c>
       <c r="B85" t="s">
         <v>54</v>
       </c>
-      <c r="C85">
-        <v>69</v>
-      </c>
       <c r="D85" s="3" t="s">
         <v>250</v>
       </c>
@@ -2681,16 +2457,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>71</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="C86">
-        <v>70</v>
-      </c>
       <c r="D86" s="3" t="s">
         <v>250</v>
       </c>
@@ -2698,16 +2471,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>72</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
       </c>
-      <c r="C87">
-        <v>71</v>
-      </c>
       <c r="D87" s="3" t="s">
         <v>250</v>
       </c>
@@ -2715,16 +2485,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>73</v>
       </c>
       <c r="B88" t="s">
         <v>54</v>
       </c>
-      <c r="C88">
-        <v>72</v>
-      </c>
       <c r="D88" s="3" t="s">
         <v>250</v>
       </c>
@@ -2732,16 +2499,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>169</v>
       </c>
       <c r="B89" t="s">
         <v>56</v>
       </c>
-      <c r="C89">
-        <v>74</v>
-      </c>
       <c r="D89" s="3" t="s">
         <v>250</v>
       </c>
@@ -2749,16 +2513,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>170</v>
       </c>
       <c r="B90" t="s">
         <v>56</v>
       </c>
-      <c r="C90">
-        <v>74</v>
-      </c>
       <c r="D90" s="3" t="s">
         <v>250</v>
       </c>
@@ -2766,16 +2527,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>74</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
       </c>
-      <c r="C91">
-        <v>75</v>
-      </c>
       <c r="D91" s="3" t="s">
         <v>250</v>
       </c>
@@ -2783,16 +2541,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>75</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
       </c>
-      <c r="C92">
-        <v>76</v>
-      </c>
       <c r="D92" s="3" t="s">
         <v>250</v>
       </c>
@@ -2800,16 +2555,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>76</v>
       </c>
       <c r="B93" t="s">
         <v>56</v>
       </c>
-      <c r="C93">
-        <v>77</v>
-      </c>
       <c r="D93" s="3" t="s">
         <v>250</v>
       </c>
@@ -2817,16 +2569,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>77</v>
       </c>
       <c r="B94" t="s">
         <v>56</v>
       </c>
-      <c r="C94">
-        <v>78</v>
-      </c>
       <c r="D94" s="3" t="s">
         <v>250</v>
       </c>
@@ -2834,16 +2583,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>78</v>
       </c>
       <c r="B95" t="s">
         <v>56</v>
       </c>
-      <c r="C95">
-        <v>79</v>
-      </c>
       <c r="D95" s="3" t="s">
         <v>250</v>
       </c>
@@ -2851,16 +2597,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>79</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
       </c>
-      <c r="C96">
-        <v>80</v>
-      </c>
       <c r="D96" s="3" t="s">
         <v>250</v>
       </c>
@@ -2868,16 +2611,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>80</v>
       </c>
       <c r="B97" t="s">
         <v>193</v>
       </c>
-      <c r="C97">
-        <v>81</v>
-      </c>
       <c r="D97" s="3" t="s">
         <v>250</v>
       </c>
@@ -2885,16 +2625,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>82</v>
       </c>
       <c r="B98" t="s">
         <v>193</v>
       </c>
-      <c r="C98">
-        <v>82</v>
-      </c>
       <c r="D98" s="3" t="s">
         <v>250</v>
       </c>
@@ -2902,16 +2639,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>171</v>
       </c>
       <c r="B99" t="s">
         <v>193</v>
       </c>
-      <c r="C99">
-        <v>83</v>
-      </c>
       <c r="D99" s="3" t="s">
         <v>250</v>
       </c>
@@ -2919,16 +2653,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>172</v>
       </c>
       <c r="B100" t="s">
         <v>193</v>
       </c>
-      <c r="C100">
-        <v>83</v>
-      </c>
       <c r="D100" s="3" t="s">
         <v>250</v>
       </c>
@@ -2936,16 +2667,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>173</v>
       </c>
       <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="C101">
-        <v>84</v>
-      </c>
       <c r="D101" s="3" t="s">
         <v>250</v>
       </c>
@@ -2953,16 +2681,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102" t="s">
         <v>193</v>
       </c>
-      <c r="C102">
-        <v>85</v>
-      </c>
       <c r="D102" s="3" t="s">
         <v>250</v>
       </c>
@@ -2970,16 +2695,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>84</v>
       </c>
       <c r="B103" t="s">
         <v>192</v>
       </c>
-      <c r="C103">
-        <v>86</v>
-      </c>
       <c r="D103" s="3" t="s">
         <v>250</v>
       </c>
@@ -2987,16 +2709,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>174</v>
       </c>
       <c r="B104" t="s">
         <v>193</v>
       </c>
-      <c r="C104">
-        <v>87</v>
-      </c>
       <c r="D104" s="3" t="s">
         <v>250</v>
       </c>
@@ -3004,16 +2723,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>193</v>
       </c>
-      <c r="C105">
-        <v>88</v>
-      </c>
       <c r="D105" s="3" t="s">
         <v>250</v>
       </c>
@@ -3021,16 +2737,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>86</v>
       </c>
       <c r="B106" t="s">
         <v>193</v>
       </c>
-      <c r="C106">
-        <v>89</v>
-      </c>
       <c r="D106" s="3" t="s">
         <v>250</v>
       </c>
@@ -3038,16 +2751,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
       <c r="B107" t="s">
         <v>193</v>
       </c>
-      <c r="C107">
-        <v>90</v>
-      </c>
       <c r="D107" s="3" t="s">
         <v>250</v>
       </c>
@@ -3055,16 +2765,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>88</v>
       </c>
       <c r="B108" t="s">
         <v>193</v>
       </c>
-      <c r="C108">
-        <v>91</v>
-      </c>
       <c r="D108" s="3" t="s">
         <v>250</v>
       </c>
@@ -3072,16 +2779,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>89</v>
       </c>
       <c r="B109" t="s">
         <v>193</v>
       </c>
-      <c r="C109">
-        <v>92</v>
-      </c>
       <c r="D109" s="3" t="s">
         <v>250</v>
       </c>
@@ -3089,16 +2793,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>90</v>
       </c>
       <c r="B110" t="s">
         <v>193</v>
       </c>
-      <c r="C110">
-        <v>93</v>
-      </c>
       <c r="D110" s="3" t="s">
         <v>250</v>
       </c>
@@ -3106,16 +2807,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>91</v>
       </c>
       <c r="B111" t="s">
         <v>193</v>
       </c>
-      <c r="C111">
-        <v>94</v>
-      </c>
       <c r="D111" s="3" t="s">
         <v>250</v>
       </c>
@@ -3123,16 +2821,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>92</v>
       </c>
       <c r="B112" t="s">
         <v>192</v>
       </c>
-      <c r="C112">
-        <v>95</v>
-      </c>
       <c r="D112" s="3" t="s">
         <v>250</v>
       </c>
@@ -3140,16 +2835,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>176</v>
       </c>
       <c r="B113" t="s">
         <v>193</v>
       </c>
-      <c r="C113">
-        <v>96</v>
-      </c>
       <c r="D113" s="3" t="s">
         <v>250</v>
       </c>
@@ -3157,16 +2849,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>177</v>
       </c>
       <c r="B114" t="s">
         <v>192</v>
       </c>
-      <c r="C114">
-        <v>97</v>
-      </c>
       <c r="D114" s="3" t="s">
         <v>250</v>
       </c>
@@ -3174,16 +2863,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>178</v>
       </c>
       <c r="B115" t="s">
         <v>192</v>
       </c>
-      <c r="C115">
-        <v>97</v>
-      </c>
       <c r="D115" s="3" t="s">
         <v>250</v>
       </c>
@@ -3191,16 +2877,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>93</v>
       </c>
       <c r="B116" t="s">
         <v>192</v>
       </c>
-      <c r="C116">
-        <v>98</v>
-      </c>
       <c r="D116" s="3" t="s">
         <v>250</v>
       </c>
@@ -3208,16 +2891,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>94</v>
       </c>
       <c r="B117" t="s">
         <v>192</v>
       </c>
-      <c r="C117">
-        <v>99</v>
-      </c>
       <c r="D117" s="3" t="s">
         <v>250</v>
       </c>
@@ -3225,16 +2905,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>95</v>
       </c>
       <c r="B118" t="s">
         <v>192</v>
       </c>
-      <c r="C118">
-        <v>100</v>
-      </c>
       <c r="D118" s="3" t="s">
         <v>250</v>
       </c>
@@ -3242,16 +2919,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>96</v>
       </c>
       <c r="B119" t="s">
         <v>192</v>
       </c>
-      <c r="C119">
-        <v>101</v>
-      </c>
       <c r="D119" s="3" t="s">
         <v>250</v>
       </c>
@@ -3259,16 +2933,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>97</v>
       </c>
       <c r="B120" t="s">
         <v>192</v>
       </c>
-      <c r="C120">
-        <v>102</v>
-      </c>
       <c r="D120" s="3" t="s">
         <v>250</v>
       </c>
@@ -3276,16 +2947,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
       <c r="B121" t="s">
         <v>192</v>
       </c>
-      <c r="C121">
-        <v>103</v>
-      </c>
       <c r="D121" s="3" t="s">
         <v>250</v>
       </c>
@@ -3293,16 +2961,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
       <c r="B122" t="s">
         <v>192</v>
       </c>
-      <c r="C122">
-        <v>104</v>
-      </c>
       <c r="D122" s="3" t="s">
         <v>250</v>
       </c>
@@ -3310,16 +2975,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>100</v>
       </c>
       <c r="B123" t="s">
         <v>192</v>
       </c>
-      <c r="C123">
-        <v>105</v>
-      </c>
       <c r="D123" s="3" t="s">
         <v>250</v>
       </c>
@@ -3327,16 +2989,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>101</v>
       </c>
       <c r="B124" t="s">
         <v>194</v>
       </c>
-      <c r="C124">
-        <v>107</v>
-      </c>
       <c r="D124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3344,16 +3003,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>102</v>
       </c>
       <c r="B125" t="s">
         <v>103</v>
       </c>
-      <c r="C125">
-        <v>108</v>
-      </c>
       <c r="D125" s="3" t="s">
         <v>250</v>
       </c>
@@ -3361,16 +3017,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>104</v>
       </c>
       <c r="B126" t="s">
         <v>103</v>
       </c>
-      <c r="C126">
-        <v>109</v>
-      </c>
       <c r="D126" s="3" t="s">
         <v>250</v>
       </c>
@@ -3378,16 +3031,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>105</v>
       </c>
       <c r="B127" t="s">
         <v>103</v>
       </c>
-      <c r="C127">
-        <v>110</v>
-      </c>
       <c r="D127" s="3" t="s">
         <v>250</v>
       </c>
@@ -3395,16 +3045,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>106</v>
       </c>
       <c r="B128" t="s">
         <v>103</v>
       </c>
-      <c r="C128">
-        <v>111</v>
-      </c>
       <c r="D128" s="3" t="s">
         <v>250</v>
       </c>
@@ -3412,16 +3059,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>107</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
       </c>
-      <c r="C129">
-        <v>112</v>
-      </c>
       <c r="D129" s="3" t="s">
         <v>250</v>
       </c>
@@ -3429,16 +3073,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>108</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
       </c>
-      <c r="C130">
-        <v>113</v>
-      </c>
       <c r="D130" s="3" t="s">
         <v>250</v>
       </c>
@@ -3446,16 +3087,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>109</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
       </c>
-      <c r="C131">
-        <v>114</v>
-      </c>
       <c r="D131" s="3" t="s">
         <v>250</v>
       </c>
@@ -3463,16 +3101,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>110</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
       </c>
-      <c r="C132">
-        <v>117</v>
-      </c>
       <c r="D132" s="3" t="s">
         <v>250</v>
       </c>
@@ -3480,16 +3115,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>111</v>
       </c>
       <c r="B133" t="s">
         <v>103</v>
       </c>
-      <c r="C133">
-        <v>118</v>
-      </c>
       <c r="D133" s="3" t="s">
         <v>250</v>
       </c>
@@ -3497,16 +3129,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>112</v>
       </c>
       <c r="B134" t="s">
         <v>103</v>
       </c>
-      <c r="C134">
-        <v>119</v>
-      </c>
       <c r="D134" s="3" t="s">
         <v>250</v>
       </c>
@@ -3514,16 +3143,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>113</v>
       </c>
       <c r="B135" t="s">
         <v>103</v>
       </c>
-      <c r="C135">
-        <v>120</v>
-      </c>
       <c r="D135" s="3" t="s">
         <v>250</v>
       </c>
@@ -3531,16 +3157,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>114</v>
       </c>
       <c r="B136" t="s">
         <v>103</v>
       </c>
-      <c r="C136">
-        <v>121</v>
-      </c>
       <c r="D136" s="3" t="s">
         <v>250</v>
       </c>
@@ -3548,16 +3171,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>115</v>
       </c>
       <c r="B137" t="s">
         <v>195</v>
       </c>
-      <c r="C137">
-        <v>122</v>
-      </c>
       <c r="D137" s="3" t="s">
         <v>250</v>
       </c>
@@ -3565,16 +3185,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>116</v>
       </c>
       <c r="B138" t="s">
         <v>195</v>
       </c>
-      <c r="C138">
-        <v>123</v>
-      </c>
       <c r="D138" s="3" t="s">
         <v>250</v>
       </c>
@@ -3582,16 +3199,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>117</v>
       </c>
       <c r="B139" t="s">
         <v>195</v>
       </c>
-      <c r="C139">
-        <v>124</v>
-      </c>
       <c r="D139" s="3" t="s">
         <v>250</v>
       </c>
@@ -3599,16 +3213,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>118</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
-      <c r="C140">
-        <v>125</v>
-      </c>
       <c r="D140" s="3" t="s">
         <v>250</v>
       </c>
@@ -3616,16 +3227,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>119</v>
       </c>
       <c r="B141" t="s">
         <v>195</v>
       </c>
-      <c r="C141">
-        <v>126</v>
-      </c>
       <c r="D141" s="3" t="s">
         <v>250</v>
       </c>
@@ -3633,16 +3241,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>120</v>
       </c>
       <c r="B142" t="s">
         <v>195</v>
       </c>
-      <c r="C142">
-        <v>127</v>
-      </c>
       <c r="D142" s="3" t="s">
         <v>250</v>
       </c>
@@ -3650,16 +3255,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>121</v>
       </c>
       <c r="B143" t="s">
         <v>195</v>
       </c>
-      <c r="C143">
-        <v>128</v>
-      </c>
       <c r="D143" s="3" t="s">
         <v>250</v>
       </c>
@@ -3667,16 +3269,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>122</v>
       </c>
       <c r="B144" t="s">
         <v>195</v>
       </c>
-      <c r="C144">
-        <v>129</v>
-      </c>
       <c r="D144" s="3" t="s">
         <v>250</v>
       </c>
@@ -3684,16 +3283,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>123</v>
       </c>
       <c r="B145" t="s">
         <v>195</v>
       </c>
-      <c r="C145">
-        <v>130</v>
-      </c>
       <c r="D145" s="3" t="s">
         <v>250</v>
       </c>
@@ -3701,16 +3297,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>124</v>
       </c>
       <c r="B146" t="s">
         <v>195</v>
       </c>
-      <c r="C146">
-        <v>131</v>
-      </c>
       <c r="D146" s="3" t="s">
         <v>250</v>
       </c>
@@ -3718,16 +3311,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
       <c r="B147" t="s">
         <v>125</v>
       </c>
-      <c r="C147">
-        <v>132</v>
-      </c>
       <c r="D147" s="3" t="s">
         <v>250</v>
       </c>
@@ -3735,16 +3325,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>180</v>
       </c>
       <c r="B148" t="s">
         <v>125</v>
       </c>
-      <c r="C148">
-        <v>132</v>
-      </c>
       <c r="D148" s="3" t="s">
         <v>250</v>
       </c>
@@ -3752,16 +3339,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>126</v>
       </c>
       <c r="B149" t="s">
         <v>125</v>
       </c>
-      <c r="C149">
-        <v>133</v>
-      </c>
       <c r="D149" s="3" t="s">
         <v>250</v>
       </c>
@@ -3769,16 +3353,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>127</v>
       </c>
       <c r="B150" t="s">
         <v>125</v>
       </c>
-      <c r="C150">
-        <v>134</v>
-      </c>
       <c r="D150" s="3" t="s">
         <v>250</v>
       </c>
@@ -3786,16 +3367,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>128</v>
       </c>
       <c r="B151" t="s">
         <v>125</v>
       </c>
-      <c r="C151">
-        <v>135</v>
-      </c>
       <c r="D151" s="3" t="s">
         <v>250</v>
       </c>
@@ -3803,16 +3381,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>129</v>
       </c>
       <c r="B152" t="s">
         <v>125</v>
       </c>
-      <c r="C152">
-        <v>136</v>
-      </c>
       <c r="D152" s="3" t="s">
         <v>250</v>
       </c>
@@ -3820,16 +3395,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>130</v>
       </c>
       <c r="B153" t="s">
         <v>125</v>
       </c>
-      <c r="C153">
-        <v>137</v>
-      </c>
       <c r="D153" s="3" t="s">
         <v>250</v>
       </c>
@@ -3837,16 +3409,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>131</v>
       </c>
       <c r="B154" t="s">
         <v>125</v>
       </c>
-      <c r="C154">
-        <v>139</v>
-      </c>
       <c r="D154" s="3" t="s">
         <v>250</v>
       </c>
@@ -3854,16 +3423,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>132</v>
       </c>
       <c r="B155" t="s">
         <v>125</v>
       </c>
-      <c r="C155">
-        <v>140</v>
-      </c>
       <c r="D155" s="3" t="s">
         <v>250</v>
       </c>
@@ -3871,16 +3437,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>181</v>
       </c>
       <c r="B156" t="s">
         <v>125</v>
       </c>
-      <c r="C156">
-        <v>141</v>
-      </c>
       <c r="D156" s="3" t="s">
         <v>250</v>
       </c>
@@ -3888,16 +3451,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>133</v>
       </c>
       <c r="B157" t="s">
         <v>125</v>
       </c>
-      <c r="C157">
-        <v>142</v>
-      </c>
       <c r="D157" s="3" t="s">
         <v>250</v>
       </c>
@@ -3905,16 +3465,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>134</v>
       </c>
       <c r="B158" t="s">
         <v>125</v>
       </c>
-      <c r="C158">
-        <v>143</v>
-      </c>
       <c r="D158" s="3" t="s">
         <v>250</v>
       </c>
@@ -3922,16 +3479,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>182</v>
       </c>
       <c r="B159" t="s">
         <v>125</v>
       </c>
-      <c r="C159">
-        <v>144</v>
-      </c>
       <c r="D159" s="3" t="s">
         <v>250</v>
       </c>
@@ -3939,16 +3493,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>135</v>
       </c>
       <c r="B160" t="s">
         <v>196</v>
       </c>
-      <c r="C160">
-        <v>145</v>
-      </c>
       <c r="D160" s="3" t="s">
         <v>250</v>
       </c>
@@ -3956,16 +3507,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>136</v>
       </c>
       <c r="B161" t="s">
         <v>196</v>
       </c>
-      <c r="C161">
-        <v>146</v>
-      </c>
       <c r="D161" s="3" t="s">
         <v>250</v>
       </c>
@@ -3973,16 +3521,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>137</v>
       </c>
       <c r="B162" t="s">
         <v>196</v>
       </c>
-      <c r="C162">
-        <v>147</v>
-      </c>
       <c r="D162" s="3" t="s">
         <v>250</v>
       </c>
@@ -3990,16 +3535,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>138</v>
       </c>
       <c r="B163" t="s">
         <v>196</v>
       </c>
-      <c r="C163">
-        <v>148</v>
-      </c>
       <c r="D163" s="3" t="s">
         <v>250</v>
       </c>
@@ -4007,16 +3549,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>183</v>
       </c>
       <c r="B164" t="s">
         <v>125</v>
       </c>
-      <c r="C164">
-        <v>149</v>
-      </c>
       <c r="D164" s="3" t="s">
         <v>250</v>
       </c>
@@ -4024,16 +3563,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>139</v>
       </c>
       <c r="B165" t="s">
         <v>196</v>
       </c>
-      <c r="C165">
-        <v>150</v>
-      </c>
       <c r="D165" s="3" t="s">
         <v>250</v>
       </c>
@@ -4041,16 +3577,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>140</v>
       </c>
       <c r="B166" t="s">
         <v>196</v>
       </c>
-      <c r="C166">
-        <v>151</v>
-      </c>
       <c r="D166" s="3" t="s">
         <v>250</v>
       </c>
@@ -4058,16 +3591,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>141</v>
       </c>
       <c r="B167" t="s">
         <v>196</v>
       </c>
-      <c r="C167">
-        <v>152</v>
-      </c>
       <c r="D167" s="3" t="s">
         <v>250</v>
       </c>
@@ -4075,16 +3605,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>142</v>
       </c>
       <c r="B168" t="s">
         <v>196</v>
       </c>
-      <c r="C168">
-        <v>153</v>
-      </c>
       <c r="D168" s="3" t="s">
         <v>250</v>
       </c>
@@ -4092,16 +3619,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>143</v>
       </c>
       <c r="B169" t="s">
         <v>196</v>
       </c>
-      <c r="C169">
-        <v>154</v>
-      </c>
       <c r="D169" s="3" t="s">
         <v>250</v>
       </c>
@@ -4109,16 +3633,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>144</v>
       </c>
       <c r="B170" t="s">
         <v>196</v>
       </c>
-      <c r="C170">
-        <v>155</v>
-      </c>
       <c r="D170" s="3" t="s">
         <v>250</v>
       </c>
@@ -4126,16 +3647,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>184</v>
       </c>
       <c r="B171" t="s">
         <v>145</v>
       </c>
-      <c r="C171">
-        <v>157</v>
-      </c>
       <c r="D171" s="3" t="s">
         <v>250</v>
       </c>
@@ -4143,16 +3661,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>185</v>
       </c>
       <c r="B172" t="s">
         <v>145</v>
       </c>
-      <c r="C172">
-        <v>158</v>
-      </c>
       <c r="D172" s="3" t="s">
         <v>250</v>
       </c>
@@ -4160,16 +3675,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>186</v>
       </c>
       <c r="B173" t="s">
         <v>145</v>
       </c>
-      <c r="C173">
-        <v>159</v>
-      </c>
       <c r="D173" s="3" t="s">
         <v>250</v>
       </c>
@@ -4177,16 +3689,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>187</v>
       </c>
       <c r="B174" t="s">
         <v>145</v>
       </c>
-      <c r="C174">
-        <v>160</v>
-      </c>
       <c r="D174" s="3" t="s">
         <v>250</v>
       </c>
@@ -4194,16 +3703,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>188</v>
       </c>
       <c r="B175" t="s">
         <v>145</v>
       </c>
-      <c r="C175">
-        <v>161</v>
-      </c>
       <c r="D175" s="3" t="s">
         <v>250</v>
       </c>
@@ -4211,16 +3717,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>189</v>
       </c>
       <c r="B176" t="s">
         <v>145</v>
       </c>
-      <c r="C176">
-        <v>162</v>
-      </c>
       <c r="D176" s="3" t="s">
         <v>250</v>
       </c>
@@ -4228,16 +3731,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>190</v>
       </c>
       <c r="B177" t="s">
         <v>145</v>
       </c>
-      <c r="C177">
-        <v>163</v>
-      </c>
       <c r="D177" s="3" t="s">
         <v>250</v>
       </c>
@@ -4245,7 +3745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>197</v>
       </c>
@@ -4259,7 +3759,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>198</v>
       </c>
@@ -4273,7 +3773,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -4287,7 +3787,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -4301,7 +3801,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>201</v>
       </c>
@@ -4315,7 +3815,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>202</v>
       </c>
@@ -4329,7 +3829,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>203</v>
       </c>
@@ -4343,7 +3843,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -4357,7 +3857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>205</v>
       </c>
@@ -4371,7 +3871,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -4385,7 +3885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -4399,7 +3899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -4413,7 +3913,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -4424,7 +3924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -4435,7 +3935,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -4446,7 +3946,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -4457,7 +3957,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -4468,7 +3968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>214</v>
       </c>
@@ -4479,7 +3979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>215</v>
       </c>
@@ -4490,7 +3990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -4501,7 +4001,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -4512,7 +4012,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -4523,7 +4023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -4537,7 +4037,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -4551,7 +4051,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -4565,7 +4065,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>222</v>
       </c>
@@ -4579,7 +4079,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -4593,7 +4093,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>224</v>
       </c>
@@ -4607,7 +4107,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>225</v>
       </c>
@@ -4621,7 +4121,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -4635,7 +4135,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>227</v>
       </c>
@@ -4649,7 +4149,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>228</v>
       </c>
@@ -4663,7 +4163,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>229</v>
       </c>
@@ -4677,7 +4177,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -4691,7 +4191,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>231</v>
       </c>
@@ -4705,7 +4205,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>232</v>
       </c>
@@ -4719,7 +4219,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>233</v>
       </c>
@@ -4733,7 +4233,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>234</v>
       </c>
@@ -4747,7 +4247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>235</v>
       </c>
@@ -4761,7 +4261,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>236</v>
       </c>
@@ -4775,7 +4275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>237</v>
       </c>
@@ -4789,7 +4289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>238</v>
       </c>
@@ -4803,7 +4303,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -4817,7 +4317,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>240</v>
       </c>
@@ -4831,7 +4331,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>241</v>
       </c>
@@ -4845,7 +4345,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -4859,7 +4359,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>243</v>
       </c>
@@ -4873,7 +4373,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -4887,7 +4387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -4901,7 +4401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>246</v>
       </c>
@@ -4915,7 +4415,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>247</v>
       </c>
@@ -4929,7 +4429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>248</v>
       </c>

--- a/uploads/wednesday schedule.xlsx
+++ b/uploads/wednesday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542E66E-50E1-45CC-A898-8F2975B497E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF833685-1743-4E79-B31F-E248709E8AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{70315176-BFCF-453F-A364-E1791D6E9811}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="257">
   <si>
     <t>Names</t>
   </si>
@@ -794,6 +794,21 @@
   </si>
   <si>
     <t>PartyyyyYYYyYyYYYyyyyyYYYy!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Maria Berger</t>
+  </si>
+  <si>
+    <t>Colter Hinkley</t>
+  </si>
+  <si>
+    <t>Gentri Garner</t>
+  </si>
+  <si>
+    <t>Ember Rosier</t>
+  </si>
+  <si>
+    <t>Drew Torrens</t>
   </si>
 </sst>
 </file>
@@ -947,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA09FDF1-643F-48DC-A977-2FD86EDF57F8}" name="Table1" displayName="Table1" ref="A1:E229" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E229" xr:uid="{FA09FDF1-643F-48DC-A977-2FD86EDF57F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA09FDF1-643F-48DC-A977-2FD86EDF57F8}" name="Table1" displayName="Table1" ref="A1:E234" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E234" xr:uid="{FA09FDF1-643F-48DC-A977-2FD86EDF57F8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{113C80BC-0DDF-4CA9-A201-7A7A54EFDA2F}" name="Names"/>
     <tableColumn id="2" xr3:uid="{25866C87-50A9-46EA-AC8E-4C7F54A9BE13}" name="Color"/>
@@ -1277,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CD97E8-CB1E-4CEC-9E54-D07E75C7448E}">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3913,64 +3928,37 @@
         <v>251</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>209</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>210</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>211</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>212</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>213</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>250</v>
@@ -3981,7 +3969,7 @@
     </row>
     <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>250</v>
@@ -3992,7 +3980,7 @@
     </row>
     <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>250</v>
@@ -4003,7 +3991,7 @@
     </row>
     <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>250</v>
@@ -4014,7 +4002,7 @@
     </row>
     <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>250</v>
@@ -4025,10 +4013,7 @@
     </row>
     <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>219</v>
-      </c>
-      <c r="B200" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>250</v>
@@ -4039,10 +4024,7 @@
     </row>
     <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>220</v>
-      </c>
-      <c r="B201" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>250</v>
@@ -4053,10 +4035,7 @@
     </row>
     <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>221</v>
-      </c>
-      <c r="B202" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>250</v>
@@ -4067,10 +4046,7 @@
     </row>
     <row r="203" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>222</v>
-      </c>
-      <c r="B203" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>250</v>
@@ -4081,10 +4057,7 @@
     </row>
     <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>223</v>
-      </c>
-      <c r="B204" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>250</v>
@@ -4095,7 +4068,7 @@
     </row>
     <row r="205" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B205" t="s">
         <v>249</v>
@@ -4109,7 +4082,7 @@
     </row>
     <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B206" t="s">
         <v>249</v>
@@ -4123,7 +4096,7 @@
     </row>
     <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B207" t="s">
         <v>249</v>
@@ -4137,7 +4110,7 @@
     </row>
     <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
         <v>249</v>
@@ -4151,7 +4124,7 @@
     </row>
     <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B209" t="s">
         <v>249</v>
@@ -4165,7 +4138,7 @@
     </row>
     <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B210" t="s">
         <v>249</v>
@@ -4179,7 +4152,7 @@
     </row>
     <row r="211" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B211" t="s">
         <v>249</v>
@@ -4193,7 +4166,7 @@
     </row>
     <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B212" t="s">
         <v>249</v>
@@ -4207,7 +4180,7 @@
     </row>
     <row r="213" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B213" t="s">
         <v>249</v>
@@ -4221,7 +4194,7 @@
     </row>
     <row r="214" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
         <v>249</v>
@@ -4235,7 +4208,7 @@
     </row>
     <row r="215" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B215" t="s">
         <v>249</v>
@@ -4249,7 +4222,7 @@
     </row>
     <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B216" t="s">
         <v>249</v>
@@ -4263,7 +4236,7 @@
     </row>
     <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B217" t="s">
         <v>249</v>
@@ -4277,7 +4250,7 @@
     </row>
     <row r="218" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B218" t="s">
         <v>249</v>
@@ -4291,7 +4264,7 @@
     </row>
     <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B219" t="s">
         <v>249</v>
@@ -4305,7 +4278,7 @@
     </row>
     <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B220" t="s">
         <v>249</v>
@@ -4319,7 +4292,7 @@
     </row>
     <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B221" t="s">
         <v>249</v>
@@ -4333,7 +4306,7 @@
     </row>
     <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B222" t="s">
         <v>249</v>
@@ -4347,7 +4320,7 @@
     </row>
     <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B223" t="s">
         <v>249</v>
@@ -4361,7 +4334,7 @@
     </row>
     <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B224" t="s">
         <v>249</v>
@@ -4375,7 +4348,7 @@
     </row>
     <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B225" t="s">
         <v>249</v>
@@ -4389,7 +4362,7 @@
     </row>
     <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B226" t="s">
         <v>249</v>
@@ -4403,7 +4376,7 @@
     </row>
     <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B227" t="s">
         <v>249</v>
@@ -4417,7 +4390,7 @@
     </row>
     <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B228" t="s">
         <v>249</v>
@@ -4431,7 +4404,7 @@
     </row>
     <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B229" t="s">
         <v>249</v>
@@ -4440,6 +4413,76 @@
         <v>250</v>
       </c>
       <c r="E229" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>244</v>
+      </c>
+      <c r="B230" t="s">
+        <v>249</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>245</v>
+      </c>
+      <c r="B231" t="s">
+        <v>249</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>246</v>
+      </c>
+      <c r="B232" t="s">
+        <v>249</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>247</v>
+      </c>
+      <c r="B233" t="s">
+        <v>249</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>248</v>
+      </c>
+      <c r="B234" t="s">
+        <v>249</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E234" s="3" t="s">
         <v>251</v>
       </c>
     </row>

--- a/uploads/wednesday schedule.xlsx
+++ b/uploads/wednesday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF833685-1743-4E79-B31F-E248709E8AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEE2DE-6896-475E-82F0-D0B95723FE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{70315176-BFCF-453F-A364-E1791D6E9811}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="258">
   <si>
     <t>Names</t>
   </si>
@@ -51,764 +51,767 @@
 1:00 PM - 5:00 PM</t>
   </si>
   <si>
-    <t>NSO Pre-Party
+    <t>Millie Settle</t>
+  </si>
+  <si>
+    <t>Rachel Stansbury</t>
+  </si>
+  <si>
+    <t>Rozlynn Evans</t>
+  </si>
+  <si>
+    <t>Seth Taylor</t>
+  </si>
+  <si>
+    <t>Kylie Jones</t>
+  </si>
+  <si>
+    <t>Cassi DeVries</t>
+  </si>
+  <si>
+    <t>Talmage Kay</t>
+  </si>
+  <si>
+    <t>Cat Spjute</t>
+  </si>
+  <si>
+    <t>Loren Caires</t>
+  </si>
+  <si>
+    <t>Michael Fusselman</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Edson Joaquin Panibra Merma</t>
+  </si>
+  <si>
+    <t>Sydney Johnson</t>
+  </si>
+  <si>
+    <t>Madalyn Barzee</t>
+  </si>
+  <si>
+    <t>Yoroko Brown</t>
+  </si>
+  <si>
+    <t>Katherine Burgoyne</t>
+  </si>
+  <si>
+    <t>Corrin Christensen</t>
+  </si>
+  <si>
+    <t>Hallie Cole</t>
+  </si>
+  <si>
+    <t>Mary Elizabeth Jarman</t>
+  </si>
+  <si>
+    <t>Audrey Jolley</t>
+  </si>
+  <si>
+    <t>Amaela Kersee</t>
+  </si>
+  <si>
+    <t>Madelyn Li</t>
+  </si>
+  <si>
+    <t>Emily Neratko</t>
+  </si>
+  <si>
+    <t>Claire Patten</t>
+  </si>
+  <si>
+    <t>Sara Sorenson</t>
+  </si>
+  <si>
+    <t>Belle Terribilini</t>
+  </si>
+  <si>
+    <t>Paige Johnson</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>London Omohundro</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Kailey Wheeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carter Taylor </t>
+  </si>
+  <si>
+    <t>Nolan Bradford</t>
+  </si>
+  <si>
+    <t>Sucil Orozco Saunders</t>
+  </si>
+  <si>
+    <t>Andrew Benge</t>
+  </si>
+  <si>
+    <t>Adam Harvey</t>
+  </si>
+  <si>
+    <t>Kaleb Heinrich</t>
+  </si>
+  <si>
+    <t>Derek Peterson</t>
+  </si>
+  <si>
+    <t>Jaya Case</t>
+  </si>
+  <si>
+    <t>Kaylie Crofts</t>
+  </si>
+  <si>
+    <t>Emily Hale</t>
+  </si>
+  <si>
+    <t>Saraya Kastello</t>
+  </si>
+  <si>
+    <t>Seth Boss</t>
+  </si>
+  <si>
+    <t>Kyle Carroll</t>
+  </si>
+  <si>
+    <t>Brigham Conlin</t>
+  </si>
+  <si>
+    <t>Amara White</t>
+  </si>
+  <si>
+    <t>Daysha Ralphs</t>
+  </si>
+  <si>
+    <t>Arwen Smith</t>
+  </si>
+  <si>
+    <t>Kathryn Ricks</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Tess Bayles</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Jacob O'Neal</t>
+  </si>
+  <si>
+    <t>Liz Sorensen</t>
+  </si>
+  <si>
+    <t>Dallin Flinders</t>
+  </si>
+  <si>
+    <t>Grace Dioquino</t>
+  </si>
+  <si>
+    <t>Aramonie Brinkerhoff</t>
+  </si>
+  <si>
+    <t>Kira Brown</t>
+  </si>
+  <si>
+    <t>Eryn Dowdy</t>
+  </si>
+  <si>
+    <t>Christian (Ivan) Liu</t>
+  </si>
+  <si>
+    <t>David Mendoza Solano</t>
+  </si>
+  <si>
+    <t>Garrett Monson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cammie Johns </t>
+  </si>
+  <si>
+    <t>Rachel Julander</t>
+  </si>
+  <si>
+    <t>Brynne Larson</t>
+  </si>
+  <si>
+    <t>Lili Lozano Olguin</t>
+  </si>
+  <si>
+    <t>Brynna Morris</t>
+  </si>
+  <si>
+    <t>Amanda Wheeler</t>
+  </si>
+  <si>
+    <t>Mia Poulsen</t>
+  </si>
+  <si>
+    <t>Ethan Baker</t>
+  </si>
+  <si>
+    <t>Raydon Diab</t>
+  </si>
+  <si>
+    <t>Briauna Anstine (Park)</t>
+  </si>
+  <si>
+    <t>Isabella Costello</t>
+  </si>
+  <si>
+    <t>Kalli Eaton</t>
+  </si>
+  <si>
+    <t>Shani Graham</t>
+  </si>
+  <si>
+    <t>Taylor Hunt</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Sarai Espinoza</t>
+  </si>
+  <si>
+    <t>Cassi Bloomfield</t>
+  </si>
+  <si>
+    <t>Christina Smith(Miller)</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Aaron Saabye</t>
+  </si>
+  <si>
+    <t>Kurt Simpson</t>
+  </si>
+  <si>
+    <t>Rachel Blaylock</t>
+  </si>
+  <si>
+    <t>Regina Hardman</t>
+  </si>
+  <si>
+    <t>McKenna Harris</t>
+  </si>
+  <si>
+    <t>Megan Lamarche</t>
+  </si>
+  <si>
+    <t>Jacob Aird</t>
+  </si>
+  <si>
+    <t>Westley Bledsoe</t>
+  </si>
+  <si>
+    <t>Brayden Brown</t>
+  </si>
+  <si>
+    <t>Michael Gonzalez Zapata</t>
+  </si>
+  <si>
+    <t>Rebecca Smyth</t>
+  </si>
+  <si>
+    <t>Alise Woodruff</t>
+  </si>
+  <si>
+    <t>Robin Ukpong</t>
+  </si>
+  <si>
+    <t>Sarah Wilkin</t>
+  </si>
+  <si>
+    <t>Kirarahu Williams</t>
+  </si>
+  <si>
+    <t>Lily Smith</t>
+  </si>
+  <si>
+    <t>Jack Cutler</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Duncan Hamilton</t>
+  </si>
+  <si>
+    <t>Hyrum Hansen</t>
+  </si>
+  <si>
+    <t>Ty Miller</t>
+  </si>
+  <si>
+    <t>Marisa Adams</t>
+  </si>
+  <si>
+    <t>Raquel Miller</t>
+  </si>
+  <si>
+    <t>Valery Chavez Cahuana</t>
+  </si>
+  <si>
+    <t>Ashlyn Danielson</t>
+  </si>
+  <si>
+    <t>Emma Erickson</t>
+  </si>
+  <si>
+    <t>Cadence Day</t>
+  </si>
+  <si>
+    <t>Katy Elliott</t>
+  </si>
+  <si>
+    <t>Cailin Foster</t>
+  </si>
+  <si>
+    <t>Chris Miller</t>
+  </si>
+  <si>
+    <t>Tru Pack</t>
+  </si>
+  <si>
+    <t>Steven Riendeau</t>
+  </si>
+  <si>
+    <t>Jocelyn James</t>
+  </si>
+  <si>
+    <t>Aubree Laughlin</t>
+  </si>
+  <si>
+    <t>Kaylee Palmer</t>
+  </si>
+  <si>
+    <t>Chantelle Sheldon</t>
+  </si>
+  <si>
+    <t>Dalmacia Puglisevich</t>
+  </si>
+  <si>
+    <t>Madeline Pulsipher</t>
+  </si>
+  <si>
+    <t>Summer Rueckert</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Talor LeBaron</t>
+  </si>
+  <si>
+    <t>Carson Davis</t>
+  </si>
+  <si>
+    <t>Gavin Hauser</t>
+  </si>
+  <si>
+    <t>Zoe Allred</t>
+  </si>
+  <si>
+    <t>Ryland Bangerter</t>
+  </si>
+  <si>
+    <t>Theodora Boateng</t>
+  </si>
+  <si>
+    <t>Kelly Byers</t>
+  </si>
+  <si>
+    <t>Shainah Chris Dioquino</t>
+  </si>
+  <si>
+    <t>Saleena Dockstader</t>
+  </si>
+  <si>
+    <t>Henry Munoz</t>
+  </si>
+  <si>
+    <t>Sibayo Ntshalintshali</t>
+  </si>
+  <si>
+    <t>Cole Whitney</t>
+  </si>
+  <si>
+    <t>Anette Lara</t>
+  </si>
+  <si>
+    <t>Delanie Owens</t>
+  </si>
+  <si>
+    <t>Maegan Samson</t>
+  </si>
+  <si>
+    <t>Reese Torrey</t>
+  </si>
+  <si>
+    <t>Carly Valdivieso</t>
+  </si>
+  <si>
+    <t>Allison Willden</t>
+  </si>
+  <si>
+    <t>Brynna Wright</t>
+  </si>
+  <si>
+    <t>Dark Green</t>
+  </si>
+  <si>
+    <t>Mary   Meline (Samsion)</t>
+  </si>
+  <si>
+    <t>Courtney Combs</t>
+  </si>
+  <si>
+    <t>Gideon Spencer</t>
+  </si>
+  <si>
+    <t>Addison Goold</t>
+  </si>
+  <si>
+    <t>Jack Whitaker</t>
+  </si>
+  <si>
+    <t>Brian Wood</t>
+  </si>
+  <si>
+    <t>Hailey Hogue</t>
+  </si>
+  <si>
+    <t>Rebekah Johnson</t>
+  </si>
+  <si>
+    <t>Abigail Allen</t>
+  </si>
+  <si>
+    <t>Emily  Tolman</t>
+  </si>
+  <si>
+    <t>Kate Van Haaften</t>
+  </si>
+  <si>
+    <t>Matthew  Hammond</t>
+  </si>
+  <si>
+    <t>Brent Lease</t>
+  </si>
+  <si>
+    <t>Megan Wicks</t>
+  </si>
+  <si>
+    <t>True  Searle</t>
+  </si>
+  <si>
+    <t>Katelyn Lawlor</t>
+  </si>
+  <si>
+    <t>Trey Draper</t>
+  </si>
+  <si>
+    <t>Dylan Duran</t>
+  </si>
+  <si>
+    <t>Heidi Mendenhall</t>
+  </si>
+  <si>
+    <t>Kendall Walker</t>
+  </si>
+  <si>
+    <t>Keaton Bellum</t>
+  </si>
+  <si>
+    <t>Joel Brautigam</t>
+  </si>
+  <si>
+    <t>Emma Zeman</t>
+  </si>
+  <si>
+    <t>Aidan Alley</t>
+  </si>
+  <si>
+    <t>Madilynn Groom</t>
+  </si>
+  <si>
+    <t>Abbie Collinwood</t>
+  </si>
+  <si>
+    <t>Sophia Lind</t>
+  </si>
+  <si>
+    <t>McKenna Smart</t>
+  </si>
+  <si>
+    <t>Ethan Jensen</t>
+  </si>
+  <si>
+    <t>Jayton Lakey</t>
+  </si>
+  <si>
+    <t>Emily  Lease</t>
+  </si>
+  <si>
+    <t>Kurt Benson</t>
+  </si>
+  <si>
+    <t>Mariah Storm</t>
+  </si>
+  <si>
+    <t>Griffin Bischoff</t>
+  </si>
+  <si>
+    <t>Luke Keller</t>
+  </si>
+  <si>
+    <t>Rebekah Rust</t>
+  </si>
+  <si>
+    <t>Meagan Silver</t>
+  </si>
+  <si>
+    <t>Zariah Billings</t>
+  </si>
+  <si>
+    <t>Brannon Westover</t>
+  </si>
+  <si>
+    <t>Sara Paulin</t>
+  </si>
+  <si>
+    <t>Lilly Pilkay</t>
+  </si>
+  <si>
+    <t>Kadence Parker(Casdorph)</t>
+  </si>
+  <si>
+    <t>Mikayla Wright</t>
+  </si>
+  <si>
+    <t>Ruby Danielson</t>
+  </si>
+  <si>
+    <t>Jacob Gonzalez</t>
+  </si>
+  <si>
+    <t>Lime Green</t>
+  </si>
+  <si>
+    <t>Dark Blue</t>
+  </si>
+  <si>
+    <t>Light Purple</t>
+  </si>
+  <si>
+    <t>LIght Pink</t>
+  </si>
+  <si>
+    <t>Light Pink</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Manuel Abreu Ramirez</t>
+  </si>
+  <si>
+    <t>Alexa Crofts</t>
+  </si>
+  <si>
+    <t>Olsen Hansen</t>
+  </si>
+  <si>
+    <t>Spencer Helsley</t>
+  </si>
+  <si>
+    <t>Delaney Lawrence</t>
+  </si>
+  <si>
+    <t>Glenda Malidadi</t>
+  </si>
+  <si>
+    <t>Porter Creighton</t>
+  </si>
+  <si>
+    <t>Rebecca Fuller</t>
+  </si>
+  <si>
+    <t>Kaela Fife</t>
+  </si>
+  <si>
+    <t>Ole Warndahl</t>
+  </si>
+  <si>
+    <t>Frank Costa</t>
+  </si>
+  <si>
+    <t>Kate Taylor</t>
+  </si>
+  <si>
+    <t>Milena Lima </t>
+  </si>
+  <si>
+    <t>Sophie Silveira </t>
+  </si>
+  <si>
+    <t>Emma Weber</t>
+  </si>
+  <si>
+    <t>Nathan Otey </t>
+  </si>
+  <si>
+    <t>Vivian Winkelman</t>
+  </si>
+  <si>
+    <t>Eric Sorensen</t>
+  </si>
+  <si>
+    <t>Garidon Hendricks</t>
+  </si>
+  <si>
+    <t>Jenna Winder</t>
+  </si>
+  <si>
+    <t>Cecilee Blackburn</t>
+  </si>
+  <si>
+    <t>Andrew Westberg</t>
+  </si>
+  <si>
+    <t>Robyn Kingsford</t>
+  </si>
+  <si>
+    <t>Kailey Sannar</t>
+  </si>
+  <si>
+    <t>Andrew Parrella</t>
+  </si>
+  <si>
+    <t>Kennedy Stephenson</t>
+  </si>
+  <si>
+    <t>Braylee Coon</t>
+  </si>
+  <si>
+    <t>Tera Sorensen</t>
+  </si>
+  <si>
+    <t>Kayla Jensen</t>
+  </si>
+  <si>
+    <t>Mosiah Morales</t>
+  </si>
+  <si>
+    <t>Jenna Moore</t>
+  </si>
+  <si>
+    <t>Sydney Winn</t>
+  </si>
+  <si>
+    <t>Aliah Amaya</t>
+  </si>
+  <si>
+    <t>Ashley McGary</t>
+  </si>
+  <si>
+    <t>Hallie Skinner</t>
+  </si>
+  <si>
+    <t>Haylee Hill</t>
+  </si>
+  <si>
+    <t>Jared Austin</t>
+  </si>
+  <si>
+    <t>Lahna McClaine</t>
+  </si>
+  <si>
+    <t>Peyton Wren</t>
+  </si>
+  <si>
+    <t>Scarlett McKendrick</t>
+  </si>
+  <si>
+    <t>Ashley Bednar</t>
+  </si>
+  <si>
+    <t>Devanee Smith</t>
+  </si>
+  <si>
+    <t>Hannah Steel</t>
+  </si>
+  <si>
+    <t>Josie Kilpack</t>
+  </si>
+  <si>
+    <t>Julio Astorga</t>
+  </si>
+  <si>
+    <t>Katie Harmer</t>
+  </si>
+  <si>
+    <t>Kennedy Brady</t>
+  </si>
+  <si>
+    <t>Susanna Lee</t>
+  </si>
+  <si>
+    <t>Sam Gutty</t>
+  </si>
+  <si>
+    <t>Ella Wheeler</t>
+  </si>
+  <si>
+    <t>Ben Blake</t>
+  </si>
+  <si>
+    <t>Emily Olsen</t>
+  </si>
+  <si>
+    <t>pam</t>
+  </si>
+  <si>
+    <t>Attend the training beginning in the Taylor Chapel. Follow directions and have a blast!</t>
+  </si>
+  <si>
+    <t>PartyyyyYYYyYyYYYyyyyyYYYy!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Maria Berger</t>
+  </si>
+  <si>
+    <t>Colter Hinkley</t>
+  </si>
+  <si>
+    <t>Gentri Garner</t>
+  </si>
+  <si>
+    <t>Ember Rosier</t>
+  </si>
+  <si>
+    <t>Drew Torrens</t>
+  </si>
+  <si>
+    <t>FYE Kick-off
 7:00 PM - 9:00 PM</t>
   </si>
   <si>
-    <t>Millie Settle</t>
-  </si>
-  <si>
-    <t>Rachel Stansbury</t>
-  </si>
-  <si>
-    <t>Rozlynn Evans</t>
-  </si>
-  <si>
-    <t>Seth Taylor</t>
-  </si>
-  <si>
-    <t>Kylie Jones</t>
-  </si>
-  <si>
-    <t>Cassi DeVries</t>
-  </si>
-  <si>
-    <t>Talmage Kay</t>
-  </si>
-  <si>
-    <t>Cat Spjute</t>
-  </si>
-  <si>
-    <t>Loren Caires</t>
-  </si>
-  <si>
-    <t>Michael Fusselman</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Edson Joaquin Panibra Merma</t>
-  </si>
-  <si>
-    <t>Sydney Johnson</t>
-  </si>
-  <si>
-    <t>Madalyn Barzee</t>
-  </si>
-  <si>
-    <t>Yoroko Brown</t>
-  </si>
-  <si>
-    <t>Katherine Burgoyne</t>
-  </si>
-  <si>
-    <t>Corrin Christensen</t>
-  </si>
-  <si>
-    <t>Hallie Cole</t>
-  </si>
-  <si>
-    <t>Mary Elizabeth Jarman</t>
-  </si>
-  <si>
-    <t>Audrey Jolley</t>
-  </si>
-  <si>
-    <t>Amaela Kersee</t>
-  </si>
-  <si>
-    <t>Madelyn Li</t>
-  </si>
-  <si>
-    <t>Emily Neratko</t>
-  </si>
-  <si>
-    <t>Claire Patten</t>
-  </si>
-  <si>
-    <t>Sara Sorenson</t>
-  </si>
-  <si>
-    <t>Belle Terribilini</t>
-  </si>
-  <si>
-    <t>Paige Johnson</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>London Omohundro</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Kailey Wheeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carter Taylor </t>
-  </si>
-  <si>
-    <t>Nolan Bradford</t>
-  </si>
-  <si>
-    <t>Sucil Orozco Saunders</t>
-  </si>
-  <si>
-    <t>Andrew Benge</t>
-  </si>
-  <si>
-    <t>Adam Harvey</t>
-  </si>
-  <si>
-    <t>Kaleb Heinrich</t>
-  </si>
-  <si>
-    <t>Derek Peterson</t>
-  </si>
-  <si>
-    <t>Jaya Case</t>
-  </si>
-  <si>
-    <t>Kaylie Crofts</t>
-  </si>
-  <si>
-    <t>Emily Hale</t>
-  </si>
-  <si>
-    <t>Saraya Kastello</t>
-  </si>
-  <si>
-    <t>Seth Boss</t>
-  </si>
-  <si>
-    <t>Kyle Carroll</t>
-  </si>
-  <si>
-    <t>Brigham Conlin</t>
-  </si>
-  <si>
-    <t>Amara White</t>
-  </si>
-  <si>
-    <t>Daysha Ralphs</t>
-  </si>
-  <si>
-    <t>Arwen Smith</t>
-  </si>
-  <si>
-    <t>Kathryn Ricks</t>
-  </si>
-  <si>
-    <t>Magenta</t>
-  </si>
-  <si>
-    <t>Tess Bayles</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Jacob O'Neal</t>
-  </si>
-  <si>
-    <t>Liz Sorensen</t>
-  </si>
-  <si>
-    <t>Dallin Flinders</t>
-  </si>
-  <si>
-    <t>Grace Dioquino</t>
-  </si>
-  <si>
-    <t>Aramonie Brinkerhoff</t>
-  </si>
-  <si>
-    <t>Kira Brown</t>
-  </si>
-  <si>
-    <t>Eryn Dowdy</t>
-  </si>
-  <si>
-    <t>Christian (Ivan) Liu</t>
-  </si>
-  <si>
-    <t>David Mendoza Solano</t>
-  </si>
-  <si>
-    <t>Garrett Monson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cammie Johns </t>
-  </si>
-  <si>
-    <t>Rachel Julander</t>
-  </si>
-  <si>
-    <t>Brynne Larson</t>
-  </si>
-  <si>
-    <t>Lili Lozano Olguin</t>
-  </si>
-  <si>
-    <t>Brynna Morris</t>
-  </si>
-  <si>
-    <t>Amanda Wheeler</t>
-  </si>
-  <si>
-    <t>Mia Poulsen</t>
-  </si>
-  <si>
-    <t>Ethan Baker</t>
-  </si>
-  <si>
-    <t>Raydon Diab</t>
-  </si>
-  <si>
-    <t>Briauna Anstine (Park)</t>
-  </si>
-  <si>
-    <t>Isabella Costello</t>
-  </si>
-  <si>
-    <t>Kalli Eaton</t>
-  </si>
-  <si>
-    <t>Shani Graham</t>
-  </si>
-  <si>
-    <t>Taylor Hunt</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Sarai Espinoza</t>
-  </si>
-  <si>
-    <t>Cassi Bloomfield</t>
-  </si>
-  <si>
-    <t>Christina Smith(Miller)</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Aaron Saabye</t>
-  </si>
-  <si>
-    <t>Kurt Simpson</t>
-  </si>
-  <si>
-    <t>Rachel Blaylock</t>
-  </si>
-  <si>
-    <t>Regina Hardman</t>
-  </si>
-  <si>
-    <t>McKenna Harris</t>
-  </si>
-  <si>
-    <t>Megan Lamarche</t>
-  </si>
-  <si>
-    <t>Jacob Aird</t>
-  </si>
-  <si>
-    <t>Westley Bledsoe</t>
-  </si>
-  <si>
-    <t>Brayden Brown</t>
-  </si>
-  <si>
-    <t>Michael Gonzalez Zapata</t>
-  </si>
-  <si>
-    <t>Rebecca Smyth</t>
-  </si>
-  <si>
-    <t>Alise Woodruff</t>
-  </si>
-  <si>
-    <t>Robin Ukpong</t>
-  </si>
-  <si>
-    <t>Sarah Wilkin</t>
-  </si>
-  <si>
-    <t>Kirarahu Williams</t>
-  </si>
-  <si>
-    <t>Lily Smith</t>
-  </si>
-  <si>
-    <t>Jack Cutler</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Duncan Hamilton</t>
-  </si>
-  <si>
-    <t>Hyrum Hansen</t>
-  </si>
-  <si>
-    <t>Ty Miller</t>
-  </si>
-  <si>
-    <t>Marisa Adams</t>
-  </si>
-  <si>
-    <t>Raquel Miller</t>
-  </si>
-  <si>
-    <t>Valery Chavez Cahuana</t>
-  </si>
-  <si>
-    <t>Ashlyn Danielson</t>
-  </si>
-  <si>
-    <t>Emma Erickson</t>
-  </si>
-  <si>
-    <t>Cadence Day</t>
-  </si>
-  <si>
-    <t>Katy Elliott</t>
-  </si>
-  <si>
-    <t>Cailin Foster</t>
-  </si>
-  <si>
-    <t>Chris Miller</t>
-  </si>
-  <si>
-    <t>Tru Pack</t>
-  </si>
-  <si>
-    <t>Steven Riendeau</t>
-  </si>
-  <si>
-    <t>Jocelyn James</t>
-  </si>
-  <si>
-    <t>Aubree Laughlin</t>
-  </si>
-  <si>
-    <t>Kaylee Palmer</t>
-  </si>
-  <si>
-    <t>Chantelle Sheldon</t>
-  </si>
-  <si>
-    <t>Dalmacia Puglisevich</t>
-  </si>
-  <si>
-    <t>Madeline Pulsipher</t>
-  </si>
-  <si>
-    <t>Summer Rueckert</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Talor LeBaron</t>
-  </si>
-  <si>
-    <t>Carson Davis</t>
-  </si>
-  <si>
-    <t>Gavin Hauser</t>
-  </si>
-  <si>
-    <t>Zoe Allred</t>
-  </si>
-  <si>
-    <t>Ryland Bangerter</t>
-  </si>
-  <si>
-    <t>Theodora Boateng</t>
-  </si>
-  <si>
-    <t>Kelly Byers</t>
-  </si>
-  <si>
-    <t>Shainah Chris Dioquino</t>
-  </si>
-  <si>
-    <t>Saleena Dockstader</t>
-  </si>
-  <si>
-    <t>Henry Munoz</t>
-  </si>
-  <si>
-    <t>Sibayo Ntshalintshali</t>
-  </si>
-  <si>
-    <t>Cole Whitney</t>
-  </si>
-  <si>
-    <t>Anette Lara</t>
-  </si>
-  <si>
-    <t>Delanie Owens</t>
-  </si>
-  <si>
-    <t>Maegan Samson</t>
-  </si>
-  <si>
-    <t>Reese Torrey</t>
-  </si>
-  <si>
-    <t>Carly Valdivieso</t>
-  </si>
-  <si>
-    <t>Allison Willden</t>
-  </si>
-  <si>
-    <t>Brynna Wright</t>
-  </si>
-  <si>
-    <t>Dark Green</t>
-  </si>
-  <si>
-    <t>Mary   Meline (Samsion)</t>
-  </si>
-  <si>
-    <t>Courtney Combs</t>
-  </si>
-  <si>
-    <t>Gideon Spencer</t>
-  </si>
-  <si>
-    <t>Addison Goold</t>
-  </si>
-  <si>
-    <t>Jack Whitaker</t>
-  </si>
-  <si>
-    <t>Brian Wood</t>
-  </si>
-  <si>
-    <t>Hailey Hogue</t>
-  </si>
-  <si>
-    <t>Rebekah Johnson</t>
-  </si>
-  <si>
-    <t>Abigail Allen</t>
-  </si>
-  <si>
-    <t>Emily  Tolman</t>
-  </si>
-  <si>
-    <t>Kate Van Haaften</t>
-  </si>
-  <si>
-    <t>Matthew  Hammond</t>
-  </si>
-  <si>
-    <t>Brent Lease</t>
-  </si>
-  <si>
-    <t>Megan Wicks</t>
-  </si>
-  <si>
-    <t>True  Searle</t>
-  </si>
-  <si>
-    <t>Katelyn Lawlor</t>
-  </si>
-  <si>
-    <t>Trey Draper</t>
-  </si>
-  <si>
-    <t>Dylan Duran</t>
-  </si>
-  <si>
-    <t>Heidi Mendenhall</t>
-  </si>
-  <si>
-    <t>Kendall Walker</t>
-  </si>
-  <si>
-    <t>Keaton Bellum</t>
-  </si>
-  <si>
-    <t>Joel Brautigam</t>
-  </si>
-  <si>
-    <t>Emma Zeman</t>
-  </si>
-  <si>
-    <t>Aidan Alley</t>
-  </si>
-  <si>
-    <t>Madilynn Groom</t>
-  </si>
-  <si>
-    <t>Abbie Collinwood</t>
-  </si>
-  <si>
-    <t>Sophia Lind</t>
-  </si>
-  <si>
-    <t>McKenna Smart</t>
-  </si>
-  <si>
-    <t>Ethan Jensen</t>
-  </si>
-  <si>
-    <t>Jayton Lakey</t>
-  </si>
-  <si>
-    <t>Emily  Lease</t>
-  </si>
-  <si>
-    <t>Kurt Benson</t>
-  </si>
-  <si>
-    <t>Mariah Storm</t>
-  </si>
-  <si>
-    <t>Griffin Bischoff</t>
-  </si>
-  <si>
-    <t>Luke Keller</t>
-  </si>
-  <si>
-    <t>Rebekah Rust</t>
-  </si>
-  <si>
-    <t>Meagan Silver</t>
-  </si>
-  <si>
-    <t>Zariah Billings</t>
-  </si>
-  <si>
-    <t>Brannon Westover</t>
-  </si>
-  <si>
-    <t>Sara Paulin</t>
-  </si>
-  <si>
-    <t>Lilly Pilkay</t>
-  </si>
-  <si>
-    <t>Kadence Parker(Casdorph)</t>
-  </si>
-  <si>
-    <t>Mikayla Wright</t>
-  </si>
-  <si>
-    <t>Ruby Danielson</t>
-  </si>
-  <si>
-    <t>Jacob Gonzalez</t>
-  </si>
-  <si>
-    <t>Lime Green</t>
-  </si>
-  <si>
-    <t>Dark Blue</t>
-  </si>
-  <si>
-    <t>Light Purple</t>
-  </si>
-  <si>
-    <t>LIght Pink</t>
-  </si>
-  <si>
-    <t>Light Pink</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Manuel Abreu Ramirez</t>
-  </si>
-  <si>
-    <t>Alexa Crofts</t>
-  </si>
-  <si>
-    <t>Olsen Hansen</t>
-  </si>
-  <si>
-    <t>Spencer Helsley</t>
-  </si>
-  <si>
-    <t>Delaney Lawrence</t>
-  </si>
-  <si>
-    <t>Glenda Malidadi</t>
-  </si>
-  <si>
-    <t>Porter Creighton</t>
-  </si>
-  <si>
-    <t>Rebecca Fuller</t>
-  </si>
-  <si>
-    <t>Kaela Fife</t>
-  </si>
-  <si>
-    <t>Ole Warndahl</t>
-  </si>
-  <si>
-    <t>Frank Costa</t>
-  </si>
-  <si>
-    <t>Kate Taylor</t>
-  </si>
-  <si>
-    <t>Milena Lima </t>
-  </si>
-  <si>
-    <t>Sophie Silveira </t>
-  </si>
-  <si>
-    <t>Emma Weber</t>
-  </si>
-  <si>
-    <t>Nathan Otey </t>
-  </si>
-  <si>
-    <t>Vivian Winkelman</t>
-  </si>
-  <si>
-    <t>Eric Sorensen</t>
-  </si>
-  <si>
-    <t>Garidon Hendricks</t>
-  </si>
-  <si>
-    <t>Jenna Winder</t>
-  </si>
-  <si>
-    <t>Cecilee Blackburn</t>
-  </si>
-  <si>
-    <t>Andrew Westberg</t>
-  </si>
-  <si>
-    <t>Robyn Kingsford</t>
-  </si>
-  <si>
-    <t>Kailey Sannar</t>
-  </si>
-  <si>
-    <t>Andrew Parrella</t>
-  </si>
-  <si>
-    <t>Kennedy Stephenson</t>
-  </si>
-  <si>
-    <t>Braylee Coon</t>
-  </si>
-  <si>
-    <t>Tera Sorensen</t>
-  </si>
-  <si>
-    <t>Kayla Jensen</t>
-  </si>
-  <si>
-    <t>Mosiah Morales</t>
-  </si>
-  <si>
-    <t>Jenna Moore</t>
-  </si>
-  <si>
-    <t>Sydney Winn</t>
-  </si>
-  <si>
-    <t>Aliah Amaya</t>
-  </si>
-  <si>
-    <t>Ashley McGary</t>
-  </si>
-  <si>
-    <t>Hallie Skinner</t>
-  </si>
-  <si>
-    <t>Haylee Hill</t>
-  </si>
-  <si>
-    <t>Jared Austin</t>
-  </si>
-  <si>
-    <t>Lahna McClaine</t>
-  </si>
-  <si>
-    <t>Peyton Wren</t>
-  </si>
-  <si>
-    <t>Scarlett McKendrick</t>
-  </si>
-  <si>
-    <t>Ashley Bednar</t>
-  </si>
-  <si>
-    <t>Devanee Smith</t>
-  </si>
-  <si>
-    <t>Hannah Steel</t>
-  </si>
-  <si>
-    <t>Josie Kilpack</t>
-  </si>
-  <si>
-    <t>Julio Astorga</t>
-  </si>
-  <si>
-    <t>Katie Harmer</t>
-  </si>
-  <si>
-    <t>Kennedy Brady</t>
-  </si>
-  <si>
-    <t>Susanna Lee</t>
-  </si>
-  <si>
-    <t>Sam Gutty</t>
-  </si>
-  <si>
-    <t>Ella Wheeler</t>
-  </si>
-  <si>
-    <t>Ben Blake</t>
-  </si>
-  <si>
-    <t>Emily Olsen</t>
-  </si>
-  <si>
-    <t>pam</t>
-  </si>
-  <si>
-    <t>Attend the training beginning in the Taylor Chapel. Follow directions and have a blast!</t>
-  </si>
-  <si>
-    <t>PartyyyyYYYyYyYYYyyyyyYYYy!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>Maria Berger</t>
-  </si>
-  <si>
-    <t>Colter Hinkley</t>
-  </si>
-  <si>
-    <t>Gentri Garner</t>
-  </si>
-  <si>
-    <t>Ember Rosier</t>
-  </si>
-  <si>
-    <t>Drew Torrens</t>
+    <t>Meet up with your groups by 7:00 PM for the Kick-off</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
     <tableColumn id="2" xr3:uid="{25866C87-50A9-46EA-AC8E-4C7F54A9BE13}" name="Color"/>
     <tableColumn id="3" xr3:uid="{5AEEC2B9-5BF8-4A2E-A7AD-420ADC21E07A}" name="Group Number"/>
     <tableColumn id="4" xr3:uid="{7CC634EC-21E7-4A3F-BD12-7904AC2B6E58}" name="NSO Event Training_x000a_1:00 PM - 5:00 PM" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{959F2D55-6159-4A3B-B299-6C40A6ADEBDF}" name="NSO Pre-Party_x000a_7:00 PM - 9:00 PM" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{959F2D55-6159-4A3B-B299-6C40A6ADEBDF}" name="FYE Kick-off_x000a_7:00 PM - 9:00 PM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1294,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CD97E8-CB1E-4CEC-9E54-D07E75C7448E}">
   <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,3170 +1323,3185 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
         <v>55</v>
       </c>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" t="s">
         <v>102</v>
       </c>
-      <c r="B125" t="s">
-        <v>103</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B190" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B206" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B217" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B218" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B222" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B225" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B226" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B227" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B230" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>247</v>
+      </c>
+      <c r="B234" t="s">
         <v>248</v>
       </c>
-      <c r="B234" t="s">
-        <v>249</v>
-      </c>
       <c r="D234" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
